--- a/temp/pages/StructureDefinition-CEQSubscriptionBundle.xlsx
+++ b/temp/pages/StructureDefinition-CEQSubscriptionBundle.xlsx
@@ -6960,7 +6960,7 @@
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F55" t="s" s="2">
         <v>49</v>
@@ -10488,7 +10488,7 @@
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="F87" t="s" s="2">
         <v>49</v>

--- a/temp/pages/StructureDefinition-CEQSubscriptionBundle.xlsx
+++ b/temp/pages/StructureDefinition-CEQSubscriptionBundle.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$113</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$145</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3919" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5027" uniqueCount="245">
   <si>
     <t>Path</t>
   </si>
@@ -767,6 +767,13 @@
   <si>
     <t>Patient {http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient}
 Practitioner {http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner}RelatedPersonOrganization {http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization}</t>
+  </si>
+  <si>
+    <t>subserv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organization
+</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -934,7 +941,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM113"/>
+  <dimension ref="A1:AM145"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -13344,9 +13351,11 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="B113" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="B113" s="2"/>
       <c r="C113" t="s" s="2">
         <v>40</v>
       </c>
@@ -13367,20 +13376,16 @@
         <v>50</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>238</v>
+        <v>107</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>239</v>
+        <v>138</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>242</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="M113" s="2"/>
+      <c r="N113" s="2"/>
       <c r="O113" t="s" s="2">
         <v>40</v>
       </c>
@@ -13428,35 +13433,3565 @@
         <v>40</v>
       </c>
       <c r="AE113" t="s" s="2">
-        <v>237</v>
+        <v>136</v>
       </c>
       <c r="AF113" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI113" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="AJ113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL113" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM113" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="114" hidden="true">
+      <c r="A114" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="B114" s="2"/>
+      <c r="C114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="E114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F114" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J114" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K114" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L114" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M114" s="2"/>
+      <c r="N114" s="2"/>
+      <c r="O114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P114" s="2"/>
+      <c r="Q114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE114" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF114" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG114" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK114" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL114" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM114" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="115" hidden="true">
+      <c r="A115" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="B115" s="2"/>
+      <c r="C115" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="E115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F115" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J115" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K115" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L115" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M115" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N115" s="2"/>
+      <c r="O115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P115" s="2"/>
+      <c r="Q115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE115" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF115" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG115" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI115" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK115" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL115" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM115" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="116" hidden="true">
+      <c r="A116" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="B116" s="2"/>
+      <c r="C116" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="E116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F116" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H116" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I116" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J116" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K116" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L116" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M116" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N116" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P116" s="2"/>
+      <c r="Q116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE116" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF116" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG116" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI116" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK116" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL116" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM116" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="117" hidden="true">
+      <c r="A117" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="B117" s="2"/>
+      <c r="C117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="E117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F117" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I117" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="K117" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L117" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="M117" s="2"/>
+      <c r="N117" s="2"/>
+      <c r="O117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P117" s="2"/>
+      <c r="Q117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE117" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AF117" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG117" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI117" t="s" s="2">
         <v>61</v>
       </c>
-      <c r="AJ113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM113" t="s" s="2">
+      <c r="AJ117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL117" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM117" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="118" hidden="true">
+      <c r="A118" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B118" s="2"/>
+      <c r="C118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="E118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F118" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I118" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J118" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K118" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L118" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="M118" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="N118" s="2"/>
+      <c r="O118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P118" s="2"/>
+      <c r="Q118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE118" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="AF118" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG118" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI118" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL118" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM118" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="119" hidden="true">
+      <c r="A119" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="B119" s="2"/>
+      <c r="C119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="E119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F119" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I119" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J119" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="K119" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M119" s="2"/>
+      <c r="N119" s="2"/>
+      <c r="O119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P119" s="2"/>
+      <c r="Q119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE119" t="s" s="2">
+        <v>154</v>
+      </c>
+      <c r="AF119" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG119" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL119" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM119" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="120" hidden="true">
+      <c r="A120" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="E120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F120" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I120" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J120" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="L120" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="M120" s="2"/>
+      <c r="N120" s="2"/>
+      <c r="O120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P120" s="2"/>
+      <c r="Q120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE120" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AF120" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG120" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH120" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="AI120" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL120" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM120" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="121" hidden="true">
+      <c r="A121" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="B121" s="2"/>
+      <c r="C121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="E121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F121" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J121" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K121" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L121" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M121" s="2"/>
+      <c r="N121" s="2"/>
+      <c r="O121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P121" s="2"/>
+      <c r="Q121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE121" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF121" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG121" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK121" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL121" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM121" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="122" hidden="true">
+      <c r="A122" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="B122" s="2"/>
+      <c r="C122" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D122" s="2"/>
+      <c r="E122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F122" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J122" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K122" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L122" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M122" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N122" s="2"/>
+      <c r="O122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P122" s="2"/>
+      <c r="Q122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE122" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF122" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG122" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI122" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK122" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL122" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM122" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="123" hidden="true">
+      <c r="A123" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="B123" s="2"/>
+      <c r="C123" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F123" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H123" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I123" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J123" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K123" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L123" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M123" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N123" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P123" s="2"/>
+      <c r="Q123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE123" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF123" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG123" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI123" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK123" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL123" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM123" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="124" hidden="true">
+      <c r="A124" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="B124" s="2"/>
+      <c r="C124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D124" s="2"/>
+      <c r="E124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F124" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I124" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J124" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K124" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="L124" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="M124" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="N124" s="2"/>
+      <c r="O124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P124" s="2"/>
+      <c r="Q124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W124" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="X124" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="Y124" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="Z124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE124" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AF124" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG124" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI124" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL124" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM124" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="125" hidden="true">
+      <c r="A125" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="B125" s="2"/>
+      <c r="C125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D125" s="2"/>
+      <c r="E125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F125" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I125" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J125" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="K125" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L125" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="M125" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="N125" s="2"/>
+      <c r="O125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P125" s="2"/>
+      <c r="Q125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE125" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AF125" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG125" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI125" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL125" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM125" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="126" hidden="true">
+      <c r="A126" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="B126" s="2"/>
+      <c r="C126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D126" s="2"/>
+      <c r="E126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F126" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I126" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J126" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K126" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P126" s="2"/>
+      <c r="Q126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="AF126" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG126" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH126" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="AI126" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL126" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM126" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="127" hidden="true">
+      <c r="A127" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="B127" s="2"/>
+      <c r="C127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F127" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J127" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K127" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L127" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+      <c r="O127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P127" s="2"/>
+      <c r="Q127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE127" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF127" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG127" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK127" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL127" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM127" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="128" hidden="true">
+      <c r="A128" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="B128" s="2"/>
+      <c r="C128" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D128" s="2"/>
+      <c r="E128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F128" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J128" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K128" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L128" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M128" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N128" s="2"/>
+      <c r="O128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P128" s="2"/>
+      <c r="Q128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF128" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG128" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI128" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK128" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL128" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM128" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="129" hidden="true">
+      <c r="A129" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="B129" s="2"/>
+      <c r="C129" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D129" s="2"/>
+      <c r="E129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F129" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H129" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I129" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J129" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K129" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L129" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M129" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N129" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P129" s="2"/>
+      <c r="Q129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF129" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG129" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI129" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK129" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL129" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM129" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="130" hidden="true">
+      <c r="A130" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="B130" s="2"/>
+      <c r="C130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F130" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I130" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J130" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="K130" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="L130" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P130" s="2"/>
+      <c r="Q130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R130" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="S130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W130" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="X130" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Y130" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="Z130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE130" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AF130" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG130" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI130" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL130" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM130" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="131" hidden="true">
+      <c r="A131" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F131" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I131" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J131" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K131" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="M131" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N131" s="2"/>
+      <c r="O131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P131" s="2"/>
+      <c r="Q131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE131" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AF131" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG131" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI131" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL131" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM131" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="132" hidden="true">
+      <c r="A132" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="B132" s="2"/>
+      <c r="C132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F132" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I132" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J132" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K132" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L132" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P132" s="2"/>
+      <c r="Q132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE132" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AF132" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG132" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI132" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL132" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM132" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="133" hidden="true">
+      <c r="A133" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="B133" s="2"/>
+      <c r="C133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D133" s="2"/>
+      <c r="E133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F133" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I133" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J133" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K133" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="L133" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="M133" s="2"/>
+      <c r="N133" s="2"/>
+      <c r="O133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P133" s="2"/>
+      <c r="Q133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE133" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="AF133" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG133" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI133" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL133" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM133" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="134" hidden="true">
+      <c r="A134" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="B134" s="2"/>
+      <c r="C134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D134" s="2"/>
+      <c r="E134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F134" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I134" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J134" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K134" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="L134" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="M134" s="2"/>
+      <c r="N134" s="2"/>
+      <c r="O134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P134" s="2"/>
+      <c r="Q134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE134" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="AF134" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG134" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI134" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL134" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM134" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="135" hidden="true">
+      <c r="A135" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B135" s="2"/>
+      <c r="C135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D135" s="2"/>
+      <c r="E135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F135" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I135" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J135" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K135" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L135" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="M135" s="2"/>
+      <c r="N135" s="2"/>
+      <c r="O135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P135" s="2"/>
+      <c r="Q135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE135" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="AF135" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG135" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI135" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL135" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM135" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="136" hidden="true">
+      <c r="A136" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B136" s="2"/>
+      <c r="C136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D136" s="2"/>
+      <c r="E136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F136" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I136" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J136" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="K136" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="L136" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M136" s="2"/>
+      <c r="N136" s="2"/>
+      <c r="O136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P136" s="2"/>
+      <c r="Q136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE136" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AF136" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG136" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH136" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="AI136" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL136" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM136" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="137" hidden="true">
+      <c r="A137" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="B137" s="2"/>
+      <c r="C137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D137" s="2"/>
+      <c r="E137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F137" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J137" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K137" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L137" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M137" s="2"/>
+      <c r="N137" s="2"/>
+      <c r="O137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P137" s="2"/>
+      <c r="Q137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE137" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AF137" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG137" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK137" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL137" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM137" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="138" hidden="true">
+      <c r="A138" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B138" s="2"/>
+      <c r="C138" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F138" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J138" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K138" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L138" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M138" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N138" s="2"/>
+      <c r="O138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P138" s="2"/>
+      <c r="Q138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="AF138" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG138" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI138" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK138" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="AL138" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM138" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="139" hidden="true">
+      <c r="A139" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="D139" s="2"/>
+      <c r="E139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F139" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H139" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="I139" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J139" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K139" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L139" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M139" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N139" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="O139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P139" s="2"/>
+      <c r="Q139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AF139" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG139" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI139" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AJ139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK139" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="AL139" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM139" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="140" hidden="true">
+      <c r="A140" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="B140" s="2"/>
+      <c r="C140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D140" s="2"/>
+      <c r="E140" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="F140" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I140" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J140" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K140" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="L140" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="M140" s="2"/>
+      <c r="N140" s="2"/>
+      <c r="O140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P140" s="2"/>
+      <c r="Q140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE140" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AF140" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG140" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI140" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL140" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM140" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="141" hidden="true">
+      <c r="A141" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="B141" s="2"/>
+      <c r="C141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D141" s="2"/>
+      <c r="E141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F141" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I141" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J141" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="K141" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="L141" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="M141" s="2"/>
+      <c r="N141" s="2"/>
+      <c r="O141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P141" s="2"/>
+      <c r="Q141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE141" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AF141" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG141" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI141" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL141" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM141" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="142" hidden="true">
+      <c r="A142" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="B142" s="2"/>
+      <c r="C142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F142" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I142" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J142" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="K142" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L142" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M142" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="N142" s="2"/>
+      <c r="O142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P142" s="2"/>
+      <c r="Q142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE142" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AF142" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG142" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI142" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL142" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM142" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="143" hidden="true">
+      <c r="A143" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B143" s="2"/>
+      <c r="C143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F143" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I143" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J143" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K143" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="L143" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M143" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N143" s="2"/>
+      <c r="O143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P143" s="2"/>
+      <c r="Q143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE143" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AF143" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG143" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI143" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL143" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM143" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="144" hidden="true">
+      <c r="A144" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B144" s="2"/>
+      <c r="C144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F144" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I144" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J144" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K144" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="L144" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="M144" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="N144" s="2"/>
+      <c r="O144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P144" s="2"/>
+      <c r="Q144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE144" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AF144" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG144" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL144" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM144" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="145" hidden="true">
+      <c r="A145" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="B145" s="2"/>
+      <c r="C145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D145" s="2"/>
+      <c r="E145" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F145" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I145" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="J145" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="K145" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="L145" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="M145" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="N145" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="O145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P145" s="2"/>
+      <c r="Q145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE145" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AF145" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG145" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI145" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="AJ145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL145" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM145" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM113">
+  <autoFilter ref="A1:AM145">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13466,7 +17001,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI112">
+  <conditionalFormatting sqref="A2:AI144">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/temp/pages/StructureDefinition-CEQSubscriptionBundle.xlsx
+++ b/temp/pages/StructureDefinition-CEQSubscriptionBundle.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5027" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5027" uniqueCount="250">
   <si>
     <t>Path</t>
   </si>
@@ -772,8 +772,24 @@
     <t>subserv</t>
   </si>
   <si>
-    <t xml:space="preserve">Organization
+    <t xml:space="preserve">Organization {http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization}
 </t>
+  </si>
+  <si>
+    <t>A grouping of people or organizations with a common purpose</t>
+  </si>
+  <si>
+    <t>A formally or informally recognized grouping of people or organizations formed for the purpose of achieving some form of collective action.  Includes companies, institutions, corporations, departments, community groups, healthcare practice groups, payer/insurer, etc.</t>
+  </si>
+  <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}org-1:The organization SHALL at least have a name or an identifier, and possibly more than one {(identifier.count() + name.count()) &gt; 0}</t>
+  </si>
+  <si>
+    <t>(also see master files messages)</t>
+  </si>
+  <si>
+    <t>Organization(classCode=ORG, determinerCode=INST)</t>
   </si>
   <si>
     <t>Bundle.signature</t>
@@ -985,8 +1001,8 @@
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="25.01171875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="22.671875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="29.51171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="48.6640625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="41.4296875" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
   </cols>
@@ -14035,16 +14051,16 @@
         <v>40</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J119" t="s" s="2">
         <v>238</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>156</v>
+        <v>239</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>157</v>
+        <v>240</v>
       </c>
       <c r="M119" s="2"/>
       <c r="N119" s="2"/>
@@ -14107,13 +14123,13 @@
         <v>40</v>
       </c>
       <c r="AI119" t="s" s="2">
-        <v>40</v>
+        <v>241</v>
       </c>
       <c r="AJ119" t="s" s="2">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="AK119" t="s" s="2">
-        <v>40</v>
+        <v>243</v>
       </c>
       <c r="AL119" t="s" s="2">
         <v>40</v>
@@ -16879,7 +16895,7 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" t="s" s="2">
@@ -16902,19 +16918,19 @@
         <v>50</v>
       </c>
       <c r="J145" t="s" s="2">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="O145" t="s" s="2">
         <v>40</v>
@@ -16963,7 +16979,7 @@
         <v>40</v>
       </c>
       <c r="AE145" t="s" s="2">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="AF145" t="s" s="2">
         <v>41</v>
